--- a/__mocks__/Preguntas Completas Por Tipo/preguntaObjetivasModerado.xlsx
+++ b/__mocks__/Preguntas Completas Por Tipo/preguntaObjetivasModerado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sullc\Documents\TPI\Workspace\TPIntegrador\Angular\TPI-Front\src\assets\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tpi2\git\TPI-Front\__mocks__\Preguntas Completas Por Tipo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD0504A-845E-4999-849D-C8F3D326F202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C4F1C7-F7FD-42A7-AE85-5274488E474C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{EA040AEE-35B0-4F5B-AEF3-29BB44B005B2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{EA040AEE-35B0-4F5B-AEF3-29BB44B005B2}"/>
   </bookViews>
   <sheets>
     <sheet name="categoria" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="71">
   <si>
     <t>nombre</t>
   </si>
@@ -177,13 +177,88 @@
   </si>
   <si>
     <t>¿Qué significa el término "ratio de Sharpe" y cómo se utiliza en la evaluación de carteras de inversión?</t>
+  </si>
+  <si>
+    <t>codigo</t>
+  </si>
+  <si>
+    <t>RCM1</t>
+  </si>
+  <si>
+    <t>PCM1</t>
+  </si>
+  <si>
+    <t>PCM2</t>
+  </si>
+  <si>
+    <t>PCM3</t>
+  </si>
+  <si>
+    <t>PCM4</t>
+  </si>
+  <si>
+    <t>PCM5</t>
+  </si>
+  <si>
+    <t>PCM6</t>
+  </si>
+  <si>
+    <t>RCM2</t>
+  </si>
+  <si>
+    <t>RCM3</t>
+  </si>
+  <si>
+    <t>RCM4</t>
+  </si>
+  <si>
+    <t>RCM5</t>
+  </si>
+  <si>
+    <t>RCM6</t>
+  </si>
+  <si>
+    <t>RCM7</t>
+  </si>
+  <si>
+    <t>RCM8</t>
+  </si>
+  <si>
+    <t>RCM9</t>
+  </si>
+  <si>
+    <t>RCM10</t>
+  </si>
+  <si>
+    <t>RCM11</t>
+  </si>
+  <si>
+    <t>RCM12</t>
+  </si>
+  <si>
+    <t>RCM13</t>
+  </si>
+  <si>
+    <t>RCM14</t>
+  </si>
+  <si>
+    <t>RCM15</t>
+  </si>
+  <si>
+    <t>RCM16</t>
+  </si>
+  <si>
+    <t>RCM17</t>
+  </si>
+  <si>
+    <t>RCM18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,14 +268,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -256,20 +323,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -592,15 +658,15 @@
       <selection activeCell="A3" sqref="A3:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -611,7 +677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -636,12 +702,12 @@
       <selection activeCell="A3" sqref="A3:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -652,11 +718,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -672,18 +738,19 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="124" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="33.5546875" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -702,8 +769,11 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -722,12 +792,15 @@
       <c r="F2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
@@ -742,12 +815,15 @@
       <c r="F3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
@@ -762,8 +838,11 @@
       <c r="F4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -782,12 +861,15 @@
       <c r="F5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C6" t="s">
@@ -802,8 +884,11 @@
       <c r="F6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -822,7 +907,9 @@
       <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -835,18 +922,19 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G7" sqref="G7:G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="94.5703125" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" customWidth="1"/>
-    <col min="12" max="12" width="49.5703125" customWidth="1"/>
+    <col min="3" max="3" width="94.5546875" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="49.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -865,8 +953,11 @@
       <c r="F1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -883,19 +974,22 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D3">
@@ -905,12 +999,15 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -927,12 +1024,15 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -949,19 +1049,22 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D6">
@@ -971,12 +1074,15 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -993,12 +1099,15 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1015,12 +1124,15 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1037,12 +1149,15 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1059,12 +1174,15 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1081,12 +1199,15 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1103,12 +1224,15 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1125,12 +1249,15 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="G13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1147,12 +1274,15 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="G14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1169,11 +1299,14 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1190,12 +1323,15 @@
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="G16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1212,19 +1348,22 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="G17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D18">
@@ -1234,12 +1373,15 @@
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="G18" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1256,10 +1398,13 @@
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="L19" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="G19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="L19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1268,6 +1413,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100641454CD1F1E6E428D478A5DC37BACE7" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ef1708d85dca7377bd826ec35b62ca84">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9" xmlns:ns4="7798dcc9-908f-468f-826a-c598f412d6fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="69e720de7d55d3231f99e1910e4c19d8" ns3:_="" ns4:_="">
     <xsd:import namespace="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9"/>
@@ -1456,38 +1618,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7274836D-657B-48C7-97FD-AD88493854E7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FE838D2-67DD-483F-BECE-425D67F53E63}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9"/>
-    <ds:schemaRef ds:uri="7798dcc9-908f-468f-826a-c598f412d6fc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1510,9 +1644,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FE838D2-67DD-483F-BECE-425D67F53E63}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7274836D-657B-48C7-97FD-AD88493854E7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9"/>
+    <ds:schemaRef ds:uri="7798dcc9-908f-468f-826a-c598f412d6fc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>